--- a/src/test/testdata/B511EA00.xlsx
+++ b/src/test/testdata/B511EA00.xlsx
@@ -25,6 +25,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -54,8 +58,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -339,21 +345,21 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1021132355</v>
+      <c r="A1" s="1">
+        <v>201021132355</v>
       </c>
-      <c r="B1">
-        <v>1021132355</v>
+      <c r="B1" s="2">
+        <v>201021132355</v>
       </c>
     </row>
   </sheetData>
